--- a/Scrum Backlog.xlsx
+++ b/Scrum Backlog.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnirudhaBhat\Desktop\Case_study\CaseStudy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E4E787-62E5-4456-A940-2585A771300A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Product Backlog" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Scrum Report" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sprint 1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Sprint 2" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sprint 3" sheetId="5" r:id="rId8"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Scrum Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint 3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="136">
   <si>
     <t>Scrum No.</t>
   </si>
@@ -429,37 +438,56 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -468,7 +496,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -526,48 +554,61 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -576,6 +617,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -584,65 +630,80 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -652,158 +713,127 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -993,25 +1023,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.38"/>
-    <col customWidth="1" min="3" max="3" width="18.88"/>
-    <col customWidth="1" min="7" max="7" width="22.25"/>
+    <col min="1" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1032,1224 +1067,1278 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="9">
-        <v>80.0</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="6">
+        <v>80</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="6" t="s">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="9">
-        <v>23.0</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="6">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="9">
-        <v>24.0</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="6">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="9">
-        <v>77.0</v>
-      </c>
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="6">
+        <v>77</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="9">
-        <v>19.0</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="6">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="9">
-        <v>25.0</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="6">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="6" t="s">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="9">
-        <v>32.0</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="6">
         <v>32</v>
       </c>
-      <c r="D13" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="9">
-        <v>33.0</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="6">
         <v>33</v>
       </c>
-      <c r="D14" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="6" t="s">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="9">
-        <v>34.0</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="6">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="7">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="9">
-        <v>35.0</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="6">
+        <v>35</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="15"/>
-      <c r="B19" s="9">
-        <v>52.0</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="6">
+        <v>52</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="15"/>
-      <c r="B20" s="6" t="s">
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9">
-        <v>57.0</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="6">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="15"/>
-      <c r="B22" s="6" t="s">
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="15"/>
-      <c r="B23" s="9">
-        <v>58.0</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="6">
+        <v>58</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18">
-        <v>81.0</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="11">
+        <v>81</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="19">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A2:A7"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A18:A24"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.0"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.88"/>
-    <col customWidth="1" min="2" max="2" width="25.5"/>
-    <col customWidth="1" min="3" max="3" width="15.75"/>
-    <col customWidth="1" min="4" max="4" width="10.88"/>
-    <col customWidth="1" min="5" max="5" width="10.75"/>
-    <col customWidth="1" min="6" max="6" width="13.88"/>
-    <col customWidth="1" min="7" max="7" width="12.38"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H2" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="32" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18">
+        <v>3</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="23">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="42" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="22"/>
-      <c r="B4" s="37" t="s">
+    <row r="4" spans="1:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="23">
+        <v>3</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="33" t="s">
+    <row r="5" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="33" t="s">
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="36" t="s">
+      <c r="E6" s="23">
+        <v>2</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="42" t="s">
         <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B4:B6"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="B4:B6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="54" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="28.25"/>
-    <col customWidth="1" min="3" max="3" width="27.13"/>
-    <col customWidth="1" min="4" max="4" width="11.25"/>
-    <col customWidth="1" min="5" max="5" width="10.75"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H2" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="I2" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="39" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18">
+        <v>3</v>
+      </c>
+      <c r="I2" s="18">
+        <v>4</v>
+      </c>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" ht="25.5" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="40" t="s">
+      <c r="E3" s="23">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="39" t="s">
+      <c r="E4" s="23">
+        <v>3</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="35">
-        <v>4.0</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="33" t="s">
+      <c r="E5" s="23">
+        <v>4</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-    </row>
-    <row r="7" ht="30.75" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="33" t="s">
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="39" t="s">
+      <c r="E7" s="23">
+        <v>2</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" ht="47.25" customHeight="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="40" t="s">
+      <c r="E8" s="23">
+        <v>2</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34"/>
+      <c r="C9" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="35">
-        <v>4.0</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" ht="48.0" customHeight="1">
-      <c r="B10" s="39" t="s">
+      <c r="E9" s="23">
+        <v>4</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-    </row>
-    <row r="11" ht="51.75" customHeight="1">
-      <c r="B11" s="17"/>
-      <c r="C11" s="40" t="s">
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="34"/>
+      <c r="C11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="39" t="s">
+      <c r="E11" s="23">
+        <v>2</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="15"/>
-      <c r="C13" s="33" t="s">
+      <c r="E12" s="23">
+        <v>1</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="33"/>
+      <c r="C13" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="17"/>
-      <c r="C14" s="33" t="s">
+      <c r="E13" s="23">
+        <v>3</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="39" t="s">
+      <c r="E14" s="23">
+        <v>3</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="35">
-        <v>4.0</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" ht="38.25" customHeight="1">
-      <c r="B16" s="17"/>
-      <c r="C16" s="40" t="s">
+      <c r="E15" s="23">
+        <v>4</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="39" t="s">
+      <c r="E16" s="23">
+        <v>2</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B17" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="17"/>
-      <c r="C18" s="33" t="s">
+      <c r="E17" s="23">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B18" s="34"/>
+      <c r="C18" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="35">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="E18" s="23">
+        <v>3</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.38"/>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="30">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="30">
-        <v>3.0</v>
-      </c>
-      <c r="I3" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="J3" s="31"/>
-    </row>
-    <row r="4" ht="42.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="39" t="s">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>3</v>
+      </c>
+      <c r="I3" s="18">
+        <v>4</v>
+      </c>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="36">
-        <v>4.0</v>
-      </c>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="24">
+        <v>4</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" ht="69.75" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="33" t="s">
+    <row r="5" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36" t="s">
+      <c r="E5" s="24">
+        <v>2</v>
+      </c>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="42" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="33" t="s">
+      <c r="N5" s="43"/>
+    </row>
+    <row r="6" spans="1:14" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="36" t="s">
+      <c r="E6" s="24">
+        <v>2</v>
+      </c>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="24">
+        <v>2</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="22"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="33" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:14" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="36">
-        <v>3.0</v>
-      </c>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="24">
+        <v>3</v>
+      </c>
+      <c r="F8" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="33" t="s">
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:14" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="36" t="s">
+      <c r="E9" s="24">
+        <v>2</v>
+      </c>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="42" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="15"/>
-      <c r="C11" s="33" t="s">
+      <c r="E10" s="24">
+        <v>2</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="37" t="s">
+      <c r="E11" s="24">
+        <v>2</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="36">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="17"/>
-      <c r="C13" s="33" t="s">
+      <c r="E12" s="24">
+        <v>2</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>